--- a/Acceptance-Test-Item-Slip.xlsx
+++ b/Acceptance-Test-Item-Slip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r23600282\random-grouping-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD0DC71-FD66-43C9-8238-FD06F9A43EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66D7608-BB45-465A-ABD7-75B983F9E89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25980" yWindow="2295" windowWidth="19425" windowHeight="10395" xr2:uid="{2C3B6304-3D18-4260-875D-1181E531DC78}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C3B6304-3D18-4260-875D-1181E531DC78}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケースマトリクス" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={21F08B55-F943-4724-A40B-A155466C1ED9}</author>
-    <author>tc={63037488-24ED-4E03-B98E-0BD8CC08A270}</author>
     <author>tc={18AF3A53-99D4-4A1D-AF18-3697A996A30F}</author>
   </authors>
   <commentList>
@@ -49,16 +48,7 @@
     「表の項目」とは？</t>
       </text>
     </comment>
-    <comment ref="C37" authorId="1" shapeId="0" xr:uid="{63037488-24ED-4E03-B98E-0BD8CC08A270}">
-      <text>
-        <t>[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    上下の中項目と同様な書き方に揃えてください。
-前後の書き方は「グループ数がXX」と書かれています</t>
-      </text>
-    </comment>
-    <comment ref="D46" authorId="2" shapeId="0" xr:uid="{18AF3A53-99D4-4A1D-AF18-3697A996A30F}">
+    <comment ref="D46" authorId="1" shapeId="0" xr:uid="{18AF3A53-99D4-4A1D-AF18-3697A996A30F}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="158">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -135,11 +125,6 @@
     <rPh sb="6" eb="10">
       <t>ショキヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下のURLにアクセスする
-http://localhost:3000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -949,12 +934,6 @@
     <rPh sb="16" eb="18">
       <t>セイスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・以下のURLにアクセスする
-http://localhost:3000
-・グループ数を「1」から「12」に変更する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1513,16 +1492,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メンバーリストの取得に失敗した場合のメンバー一覧と「追加」機能の
-初期表示+C19E25C19:C28C19:C19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中項目の「メンバー名が1から12文字の文字列」の1行目の項目の操作を行う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中項目の「メンバー名が1から12文字の文字列」の1行目の項目の提条件以外の操作を行う</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1546,6 +1516,27 @@
   </si>
   <si>
     <t>中項目の「メンバー名が1から12文字の文字列」の1行目の項目の操作を行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバーリストの取得に失敗した場合のメンバー一覧と「追加」機能の
+初期表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・シークレットモードで以下のURLにアクセスする
+http://localhost:3000
+・グループ数を「1」から「12」に変更する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中項目の「メンバー名が1から12文字の文字列」の1行目の項目のテスト手順を行う</t>
+    <rPh sb="34" eb="36">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1858,11 +1849,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1873,40 +1873,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1918,26 +1912,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5480,10 +5471,6 @@
   <threadedComment ref="F35" dT="2022-12-14T00:25:50.45" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{21F08B55-F943-4724-A40B-A155466C1ED9}">
     <text>「表の項目」とは？</text>
   </threadedComment>
-  <threadedComment ref="C37" dT="2022-12-14T01:13:31.99" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{63037488-24ED-4E03-B98E-0BD8CC08A270}" done="1">
-    <text>上下の中項目と同様な書き方に揃えてください。
-前後の書き方は「グループ数がXX」と書かれています</text>
-  </threadedComment>
   <threadedComment ref="D46" dT="2022-12-14T01:03:50.42" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{18AF3A53-99D4-4A1D-AF18-3697A996A30F}" done="1">
     <text>中項目の「グループ数が空」を行う→前提条件のURLにアクセスするも含むので２重になっています</text>
   </threadedComment>
@@ -5494,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A09298-0F71-4963-8BFE-63280B4801A1}">
   <dimension ref="B2:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5525,1254 +5512,1301 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>120</v>
+      <c r="D3" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>118</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="19"/>
     </row>
     <row r="4" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="19"/>
     </row>
     <row r="5" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="53"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="2:8" ht="73" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="53"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="53"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="2:8" ht="108" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="53"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="53"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="2:8" ht="103" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="53"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="2:8" ht="103" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="53"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>138</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="53"/>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" ht="68.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="53"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="60"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="53"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="60"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="63"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="53"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>113</v>
-      </c>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="53"/>
-      <c r="C16" s="59"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="31" t="s">
         <v>135</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>137</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="32"/>
     </row>
     <row r="17" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="53"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="E17" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>145</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="32"/>
     </row>
     <row r="18" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="53"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="32"/>
     </row>
     <row r="19" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="53"/>
-      <c r="C19" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>136</v>
+      <c r="B19" s="63"/>
+      <c r="C19" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="32"/>
     </row>
     <row r="20" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="53"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="32"/>
     </row>
     <row r="21" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="53"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H21" s="32"/>
     </row>
     <row r="22" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="53"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H22" s="32"/>
     </row>
     <row r="23" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="53"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="63"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="2:8" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="63"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="32"/>
-    </row>
-    <row r="24" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="53"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="27" t="s">
+      <c r="E25" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>150</v>
-      </c>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="2:8" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="53"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>152</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="32"/>
     </row>
     <row r="26" spans="2:8" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="53"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="32"/>
     </row>
     <row r="27" spans="2:8" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="53"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="32"/>
     </row>
     <row r="28" spans="2:8" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="53"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="32"/>
     </row>
     <row r="29" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="53"/>
-      <c r="C29" s="57" t="s">
+      <c r="B29" s="63"/>
+      <c r="C29" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>136</v>
+      <c r="E29" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="32"/>
     </row>
     <row r="30" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="53"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="32"/>
     </row>
     <row r="31" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="53"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H31" s="32"/>
     </row>
     <row r="32" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="54"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="2:8" s="1" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" spans="2:8" s="1" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="37" t="s">
+      <c r="C33" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="39" t="s">
+      <c r="F33" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
     </row>
     <row r="34" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="38"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="44"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="51"/>
     </row>
     <row r="35" spans="2:8" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="38"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
-      <c r="E35" s="40"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="2:8" s="1" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="38"/>
-      <c r="C36" s="45"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="41"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="38"/>
-      <c r="C37" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>8</v>
+      <c r="B37" s="48"/>
+      <c r="C37" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="62"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="38"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="46"/>
       <c r="F38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="48"/>
+      <c r="C39" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="62"/>
-    </row>
-    <row r="39" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="38"/>
-      <c r="C39" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="22"/>
     </row>
     <row r="40" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="38"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
       <c r="F40" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="38"/>
-      <c r="C41" s="45" t="s">
+      <c r="B41" s="48"/>
+      <c r="C41" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="46" t="s">
-        <v>26</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="38"/>
-      <c r="C42" s="45"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="46"/>
       <c r="E42" s="46"/>
       <c r="F42" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G42" s="26"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="38"/>
-      <c r="C43" s="45"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
       <c r="F43" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="38"/>
-      <c r="C44" s="37" t="s">
+      <c r="B44" s="48"/>
+      <c r="C44" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" s="39" t="s">
+      <c r="F44" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="38"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="48"/>
+      <c r="C46" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="38"/>
-      <c r="C46" s="37" t="s">
+      <c r="D46" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="39" t="s">
+      <c r="F46" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="38"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
       <c r="F48" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="38"/>
-      <c r="C49" s="37" t="s">
+      <c r="B49" s="48"/>
+      <c r="C49" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="39" t="s">
+      <c r="F49" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="2:8" ht="55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G51" s="26"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="2:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="37" t="s">
+      <c r="C53" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="D53" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>44</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="2:8" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="48" t="s">
-        <v>46</v>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="62" t="s">
+        <v>45</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="2:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
       <c r="F56" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
       <c r="F57" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="41"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="44"/>
       <c r="F58" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="2:8" ht="92" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8" ht="92" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>49</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="2:8" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
       <c r="F60" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" s="48" t="s">
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="2:8" ht="70" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
       <c r="F62" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
       <c r="F63" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="41"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="44"/>
       <c r="F64" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="2:8" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="38"/>
-      <c r="C65" s="37" t="s">
+      <c r="B65" s="48"/>
+      <c r="C65" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="49"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="48" t="s">
-        <v>49</v>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="62" t="s">
+        <v>48</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="49"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="61"/>
       <c r="F68" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="48" t="s">
-        <v>88</v>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="62" t="s">
+        <v>87</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="2:8" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="49"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="61"/>
       <c r="F70" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="2:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="48" t="s">
-        <v>89</v>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="62" t="s">
+        <v>88</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="2:8" ht="59" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="49"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="61"/>
       <c r="F72" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="2:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="48" t="s">
-        <v>66</v>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="62" t="s">
+        <v>65</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="2:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="49"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="61"/>
       <c r="F74" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="2:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40" t="s">
-        <v>92</v>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="2:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="38"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
       <c r="F76" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="2:8" ht="85" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="38"/>
-      <c r="C77" s="37" t="s">
+      <c r="B77" s="48"/>
+      <c r="C77" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D77" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E77" s="39" t="s">
+      <c r="F77" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="2:8" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
       <c r="F78" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G78" s="26"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="2:8" ht="92.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="39" t="s">
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="G79" s="25"/>
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="2:8" ht="118" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
       <c r="F80" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G80" s="26"/>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="38"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="F81" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G81" s="24"/>
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="38"/>
-      <c r="C82" s="37" t="s">
+      <c r="B82" s="48"/>
+      <c r="C82" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D82" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="39" t="s">
+      <c r="F82" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="41"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="44"/>
       <c r="F83" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="39" t="s">
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="2:8" ht="95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="41"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
       <c r="F85" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="2:8" ht="62.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="38"/>
-      <c r="C86" s="37" t="s">
+      <c r="B86" s="48"/>
+      <c r="C86" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D86" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E86" s="39" t="s">
+      <c r="F86" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="G86" s="26"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="2:8" ht="94" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="41"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
       <c r="F87" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G87" s="26"/>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="2:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="39" t="s">
-        <v>95</v>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="42" t="s">
+        <v>94</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G88" s="26"/>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="2:8" ht="81" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="41"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
       <c r="F89" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G89" s="26"/>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="2:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="45" t="s">
+      <c r="D90" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E90" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D90" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="E90" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="2:8" ht="131" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="43"/>
-      <c r="C91" s="45"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="53"/>
       <c r="D91" s="46"/>
       <c r="E91" s="46"/>
       <c r="F91" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="43"/>
-      <c r="C92" s="45" t="s">
+      <c r="B92" s="60"/>
+      <c r="C92" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D92" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="46" t="s">
+      <c r="F92" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="2:8" ht="50.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="43"/>
-      <c r="C93" s="45"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="53"/>
       <c r="D93" s="46"/>
       <c r="E93" s="46"/>
       <c r="F93" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="44"/>
-      <c r="C94" s="45"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="53"/>
       <c r="D94" s="46"/>
       <c r="E94" s="46"/>
       <c r="F94" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G94" s="26"/>
       <c r="H94" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B3:B32"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B53:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D65:D76"/>
+    <mergeCell ref="C65:C76"/>
+    <mergeCell ref="C53:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E37:E38"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="C5:C11"/>
     <mergeCell ref="H37:H38"/>
@@ -6789,63 +6823,16 @@
     <mergeCell ref="D49:D52"/>
     <mergeCell ref="C49:C52"/>
     <mergeCell ref="G33:G34"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="D65:D76"/>
-    <mergeCell ref="C65:C76"/>
-    <mergeCell ref="C53:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="B3:B32"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B53:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="D25:D28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6856,12 +6843,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="42a61f6c-c59c-42a4-a645-ef628d67d90a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7d62ce6-85b2-47d4-aed3-b6ad05956793">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7070,20 +7059,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="42a61f6c-c59c-42a4-a645-ef628d67d90a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7d62ce6-85b2-47d4-aed3-b6ad05956793">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B79634-3F75-44E6-8875-C9CD5ACC8C5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F142F9F-EC10-46B2-90E7-713CF6987131}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="42a61f6c-c59c-42a4-a645-ef628d67d90a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f7d62ce6-85b2-47d4-aed3-b6ad05956793"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7108,18 +7104,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F142F9F-EC10-46B2-90E7-713CF6987131}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B79634-3F75-44E6-8875-C9CD5ACC8C5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="42a61f6c-c59c-42a4-a645-ef628d67d90a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f7d62ce6-85b2-47d4-aed3-b6ad05956793"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>